--- a/TestData/TS10_VerifyICOContractWhenStaffFromDiffLegalEntity.xlsx
+++ b/TestData/TS10_VerifyICOContractWhenStaffFromDiffLegalEntity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670B7B20-325B-4501-A9C2-68276A531ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09704DA7-50C4-4AE2-A9D2-52869F23EABD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22470" windowHeight="6375" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
   <si>
     <t>CompanyType</t>
   </si>
@@ -404,9 +404,6 @@
   </si>
   <si>
     <t>Inte Q, LLC</t>
-  </si>
-  <si>
-    <t>10Pearls</t>
   </si>
   <si>
     <t>Nabil Abdallah</t>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1288,7 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1618,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,8 +1658,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>125</v>
+      <c r="A2" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>116</v>
@@ -1812,12 +1809,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1831,7 +1828,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>100</v>
